--- a/biology/Médecine/Gingivite_ulcéronécrotique/Gingivite_ulcéronécrotique.xlsx
+++ b/biology/Médecine/Gingivite_ulcéronécrotique/Gingivite_ulcéronécrotique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gingivite_ulc%C3%A9ron%C3%A9crotique</t>
+          <t>Gingivite_ulcéronécrotique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La gingivite ulcéronécrotique (GUN) est une inflammation destructrice des tissus mous parodontaux, non contagieuse. Les symptômes principaux se caractérisent par de la douleur, des gingivorragies ainsi qu'une ulcération des papilles interdentaires (en). Elle fait partie, avec la parodontite ulcéronécrotique (PUN), du groupe des maladies parodontales nécrosantes.
 La douleur gingivale qui caractérise la GUN la distingue de la parodontite chronique, plus courante, qui est rarement douloureuse. Les organismes responsables sont principalement des bactéries anaérobies, en particulier des Fusobacteriota et des espèces de Spirochaetota.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gingivite_ulc%C3%A9ron%C3%A9crotique</t>
+          <t>Gingivite_ulcéronécrotique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La gingivite ulcéronécrotique (GUN) est une conséquence de l'association de facteurs généraux, bactériens et psychologiques. Il existe des facteurs favorisants comme l'accumulation de plaque dentaire, le tabagisme, le stress, la malnutrition ou encore l'immunodépression sévère.
 Les bactéries en cause sont des bacilles fusiformes à Gram négatif anaérobies stricts (Prevotella intermedia et Fusobacterium nucleatum), des spirochètes (Treponema sp.) et des Selenomonas sputigena. Des virus tels le cytomégalovirus et celui d'Epstein-Barr seraient également impliqués.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gingivite_ulc%C3%A9ron%C3%A9crotique</t>
+          <t>Gingivite_ulcéronécrotique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La gingivite ulcéronécrotique (GUN) se caractérise par des lésions nécrotiques au niveau de la gencive marginale, des zones de nécrose recouvertes d'une pseudomembrane blanc jaunâtre de consistance molle faite de leucocytes et de bactéries (la zone ulcéreuse est sous-jacente). L'ulcère nécrotique commence au sommet de la papille et la sépare en un versant vestibulaire et un lingual. Il y a une gingivorragie spontanée, une halitose fréquente et parfois des adénopathies.
 Au début, une seule papille est touchée mais l'atteinte peut s'étendre aux autres papilles avec un lien nécrotique. La nécrose peut s'étendre sur toutes les faces vestibulaires, plus rarement sur les faces linguales ou palatines.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gingivite_ulc%C3%A9ron%C3%A9crotique</t>
+          <t>Gingivite_ulcéronécrotique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement comprend :
 un détartrage ultrasonique pour retirer plaque et tartre ;
